--- a/Team-Data/2014-15/3-6-2014-15.xlsx
+++ b/Team-Data/2014-15/3-6-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,22 +733,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J2" t="n">
         <v>81.09999999999999</v>
@@ -693,31 +760,31 @@
         <v>9.9</v>
       </c>
       <c r="M2" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O2" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P2" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R2" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U2" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="V2" t="n">
         <v>14.4</v>
@@ -732,19 +799,19 @@
         <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC2" t="n">
         <v>6.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -801,10 +868,10 @@
         <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>0.417</v>
+        <v>0.407</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.328</v>
       </c>
       <c r="O3" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R3" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S3" t="n">
         <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U3" t="n">
         <v>24.4</v>
@@ -914,31 +981,31 @@
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE3" t="n">
         <v>21</v>
       </c>
-      <c r="AA3" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
         <v>21</v>
       </c>
-      <c r="AE3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>20</v>
-      </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -956,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -974,13 +1041,13 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
@@ -998,10 +1065,10 @@
         <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="n">
         <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.417</v>
+        <v>0.424</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J4" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
@@ -1060,73 +1127,73 @@
         <v>20.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P4" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
         <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W4" t="n">
         <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y4" t="n">
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>20</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1141,7 +1208,7 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>20</v>
@@ -1150,19 +1217,19 @@
         <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>17</v>
       </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1174,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.45</v>
+        <v>0.441</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
         <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,7 +1309,7 @@
         <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O5" t="n">
         <v>17.1</v>
@@ -1251,22 +1318,22 @@
         <v>23.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="R5" t="n">
         <v>10.1</v>
       </c>
       <c r="S5" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="T5" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="U5" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V5" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
@@ -1278,31 +1345,31 @@
         <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA5" t="n">
         <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1341,10 +1408,10 @@
         <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
         <v>30</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.619</v>
+        <v>0.629</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
         <v>7.7</v>
@@ -1424,22 +1491,22 @@
         <v>21.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
         <v>20.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
         <v>12.3</v>
       </c>
       <c r="S6" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T6" t="n">
         <v>46</v>
@@ -1457,43 +1524,43 @@
         <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA6" t="n">
         <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG6" t="n">
         <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1502,19 +1569,19 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
       </c>
       <c r="AP6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>3</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>2</v>
-      </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
@@ -1544,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="BB6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -1576,82 +1643,82 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
         <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>0.609</v>
+        <v>0.619</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J7" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K7" t="n">
         <v>0.456</v>
       </c>
       <c r="L7" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M7" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="N7" t="n">
         <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R7" t="n">
         <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W7" t="n">
         <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y7" t="n">
         <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
         <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1663,19 +1730,19 @@
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,13 +1751,13 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1699,16 +1766,16 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>17</v>
@@ -1729,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -1773,13 +1840,13 @@
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
         <v>9.300000000000001</v>
@@ -1788,22 +1855,22 @@
         <v>26.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
         <v>42.3</v>
@@ -1812,31 +1879,31 @@
         <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>4.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z8" t="n">
         <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1854,37 +1921,37 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
       </c>
       <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS8" t="n">
         <v>23</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>20</v>
-      </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1905,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="n">
-        <v>0.355</v>
+        <v>0.361</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
         <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.429</v>
+        <v>0.427</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O9" t="n">
         <v>17.9</v>
@@ -1979,19 +2046,19 @@
         <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
         <v>32.5</v>
       </c>
       <c r="T9" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U9" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
@@ -2000,10 +2067,10 @@
         <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
         <v>22.8</v>
@@ -2012,13 +2079,13 @@
         <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2036,10 +2103,10 @@
         <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2054,22 +2121,22 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
@@ -2078,19 +2145,19 @@
         <v>18</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>0.377</v>
+        <v>0.383</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,31 +2207,31 @@
         <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L10" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M10" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O10" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P10" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.705</v>
+        <v>0.704</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S10" t="n">
         <v>32.6</v>
@@ -2188,19 +2255,19 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA10" t="n">
         <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,16 +2279,16 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -2230,10 +2297,10 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO10" t="n">
         <v>20</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2257,25 +2324,25 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="n">
         <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.477</v>
@@ -2331,10 +2398,10 @@
         <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="O11" t="n">
         <v>16.2</v>
@@ -2343,28 +2410,28 @@
         <v>21.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
         <v>27.2</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y11" t="n">
         <v>3.4</v>
@@ -2376,13 +2443,13 @@
         <v>18.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2421,13 +2488,13 @@
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2448,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -2501,70 +2568,70 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
         <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.721</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
         <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>22</v>
       </c>
       <c r="V12" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="W12" t="n">
         <v>9.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y12" t="n">
         <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,16 +2643,16 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,16 +2661,16 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR12" t="n">
         <v>6</v>
@@ -2612,7 +2679,7 @@
         <v>24</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>10</v>
@@ -2627,13 +2694,13 @@
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
         <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.443</v>
+        <v>0.433</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,28 +2753,28 @@
         <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>0.437</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P13" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R13" t="n">
         <v>10.5</v>
@@ -2716,7 +2783,7 @@
         <v>34.5</v>
       </c>
       <c r="T13" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U13" t="n">
         <v>21.3</v>
@@ -2737,25 +2804,25 @@
         <v>20.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB13" t="n">
         <v>96.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2764,13 +2831,13 @@
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2779,19 +2846,19 @@
         <v>21</v>
       </c>
       <c r="AO13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR13" t="n">
         <v>20</v>
       </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>19</v>
-      </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
         <v>5</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2982,10 +3049,10 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -2994,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -3047,13 +3114,13 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.7</v>
@@ -3062,55 +3129,55 @@
         <v>19.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="P15" t="n">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="T15" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="AB15" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
@@ -3140,13 +3207,13 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3155,10 +3222,10 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3170,19 +3237,19 @@
         <v>19</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA15" t="n">
         <v>22</v>
       </c>
-      <c r="BA15" t="n">
-        <v>23</v>
-      </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -3214,49 +3281,49 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.721</v>
+        <v>0.717</v>
       </c>
       <c r="H16" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I16" t="n">
         <v>38.1</v>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="O16" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S16" t="n">
         <v>32.4</v>
@@ -3265,13 +3332,13 @@
         <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
@@ -3280,7 +3347,7 @@
         <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA16" t="n">
         <v>20.5</v>
@@ -3289,10 +3356,10 @@
         <v>99.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,10 +3371,10 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
         <v>18</v>
@@ -3316,7 +3383,7 @@
         <v>7</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
@@ -3325,28 +3392,28 @@
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT16" t="n">
         <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
@@ -3355,16 +3422,16 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3463,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="n">
         <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.443</v>
+        <v>0.45</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J17" t="n">
         <v>76.09999999999999</v>
@@ -3423,7 +3490,7 @@
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N17" t="n">
         <v>0.344</v>
@@ -3432,10 +3499,10 @@
         <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R17" t="n">
         <v>9</v>
@@ -3474,16 +3541,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>20</v>
@@ -3507,13 +3574,13 @@
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -3656,31 +3723,31 @@
         <v>1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3698,13 +3765,13 @@
         <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3713,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3850,13 +3917,13 @@
         <v>28</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3868,19 +3935,19 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP19" t="n">
         <v>3</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>2</v>
       </c>
       <c r="AQ19" t="n">
         <v>14</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3889,19 +3956,19 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -3945,103 +4012,103 @@
         <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>0.525</v>
+        <v>0.541</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O20" t="n">
         <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
         <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
@@ -4050,7 +4117,7 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
@@ -4059,19 +4126,19 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU20" t="n">
         <v>16</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4080,16 +4147,16 @@
         <v>26</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4217,7 +4284,7 @@
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>20</v>
@@ -4226,13 +4293,13 @@
         <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4256,7 +4323,7 @@
         <v>17</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
         <v>13</v>
@@ -4396,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4417,16 +4484,16 @@
         <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4438,28 +4505,28 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>10</v>
       </c>
       <c r="BC22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -4491,67 +4558,67 @@
         <v>62</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.323</v>
+        <v>0.306</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
         <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
         <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.3</v>
@@ -4560,13 +4627,13 @@
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,25 +4645,25 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,16 +4678,16 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>0.21</v>
+        <v>0.213</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,31 +4755,31 @@
         <v>33.1</v>
       </c>
       <c r="J24" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="L24" t="n">
         <v>7.9</v>
       </c>
       <c r="M24" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="N24" t="n">
         <v>0.319</v>
       </c>
       <c r="O24" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S24" t="n">
         <v>31</v>
@@ -4721,7 +4788,7 @@
         <v>42.5</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V24" t="n">
         <v>18.5</v>
@@ -4736,25 +4803,25 @@
         <v>5.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA24" t="n">
         <v>20.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.4</v>
+        <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
@@ -4781,10 +4848,10 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="n">
         <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.524</v>
+        <v>0.516</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4873,34 +4940,34 @@
         <v>86.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M25" t="n">
         <v>26.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O25" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P25" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R25" t="n">
         <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U25" t="n">
         <v>20.6</v>
@@ -4909,31 +4976,31 @@
         <v>15.2</v>
       </c>
       <c r="W25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
         <v>22.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4942,16 +5009,16 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>7</v>
@@ -4960,7 +5027,7 @@
         <v>7</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>16</v>
@@ -4972,40 +5039,40 @@
         <v>6</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5127,10 +5194,10 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>25</v>
@@ -5172,7 +5239,7 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
         <v>21</v>
       </c>
       <c r="F27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
-        <v>0.35</v>
+        <v>0.356</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5234,34 +5301,34 @@
         <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.45</v>
       </c>
       <c r="L27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M27" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.329</v>
+        <v>0.328</v>
       </c>
       <c r="O27" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="P27" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S27" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T27" t="n">
         <v>44.7</v>
@@ -5270,13 +5337,13 @@
         <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>6</v>
@@ -5288,13 +5355,13 @@
         <v>24.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC27" t="n">
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5315,16 +5382,16 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM27" t="n">
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,13 +5403,13 @@
         <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT27" t="n">
         <v>8</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5354,10 +5421,10 @@
         <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -5413,34 +5480,34 @@
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
         <v>0.455</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
         <v>33.8</v>
@@ -5452,13 +5519,13 @@
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.7</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
@@ -5467,16 +5534,16 @@
         <v>19.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5485,19 +5552,19 @@
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,22 +5573,22 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>13</v>
@@ -5530,10 +5597,10 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW28" t="n">
         <v>14</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>15</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5545,13 +5612,13 @@
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n">
-        <v>0.613</v>
+        <v>0.623</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5598,46 +5665,46 @@
         <v>38.1</v>
       </c>
       <c r="J29" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L29" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="N29" t="n">
         <v>0.347</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
         <v>20.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
@@ -5649,37 +5716,37 @@
         <v>21.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
       </c>
       <c r="AF29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG29" t="n">
         <v>9</v>
       </c>
-      <c r="AG29" t="n">
-        <v>10</v>
-      </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5688,31 +5755,31 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP29" t="n">
         <v>5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
         <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW29" t="n">
         <v>12</v>
@@ -5724,10 +5791,10 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M30" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N30" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O30" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P30" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R30" t="n">
         <v>11.8</v>
       </c>
       <c r="S30" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T30" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.3</v>
@@ -5831,19 +5898,19 @@
         <v>19.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
         <v>22</v>
@@ -5855,13 +5922,13 @@
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5870,10 +5937,10 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5882,13 +5949,13 @@
         <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5897,16 +5964,16 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA30" t="n">
         <v>25</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="n">
         <v>27</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5965,28 +6032,28 @@
         <v>82.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M31" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O31" t="n">
         <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R31" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S31" t="n">
         <v>33.5</v>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6052,7 +6119,7 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6061,10 +6128,10 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
@@ -6079,7 +6146,7 @@
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-6-2014-15</t>
+          <t>2015-03-06</t>
         </is>
       </c>
     </row>
